--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H2">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I2">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J2">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.802352333333334</v>
+        <v>3.317411333333334</v>
       </c>
       <c r="N2">
-        <v>17.407057</v>
+        <v>9.952234000000001</v>
       </c>
       <c r="O2">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="P2">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="Q2">
-        <v>255.8594995401862</v>
+        <v>162.8006983554191</v>
       </c>
       <c r="R2">
-        <v>2302.735495861676</v>
+        <v>1465.206285198772</v>
       </c>
       <c r="S2">
-        <v>0.03832362684488012</v>
+        <v>0.02556026644163081</v>
       </c>
       <c r="T2">
-        <v>0.03832362684488012</v>
+        <v>0.02556026644163081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H3">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I3">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J3">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.457719</v>
       </c>
       <c r="O3">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="P3">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="Q3">
-        <v>565.2749190628324</v>
+        <v>629.0993067844336</v>
       </c>
       <c r="R3">
-        <v>5087.474271565491</v>
+        <v>5661.893761059902</v>
       </c>
       <c r="S3">
-        <v>0.08466906681935125</v>
+        <v>0.09877074276764067</v>
       </c>
       <c r="T3">
-        <v>0.08466906681935125</v>
+        <v>0.09877074276764064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H4">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I4">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J4">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.378240000000001</v>
+        <v>7.649101666666667</v>
       </c>
       <c r="N4">
-        <v>22.13472</v>
+        <v>22.947305</v>
       </c>
       <c r="O4">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="P4">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="Q4">
-        <v>325.3495626321067</v>
+        <v>375.3767525336323</v>
       </c>
       <c r="R4">
-        <v>2928.14606368896</v>
+        <v>3378.39077280269</v>
       </c>
       <c r="S4">
-        <v>0.04873211764607337</v>
+        <v>0.05893543398571284</v>
       </c>
       <c r="T4">
-        <v>0.04873211764607337</v>
+        <v>0.05893543398571283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H5">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I5">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J5">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.182820333333333</v>
+        <v>3.242843</v>
       </c>
       <c r="N5">
-        <v>9.548461</v>
+        <v>9.728529</v>
       </c>
       <c r="O5">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="P5">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="Q5">
-        <v>140.3490809985275</v>
+        <v>159.1412857827647</v>
       </c>
       <c r="R5">
-        <v>1263.141728986748</v>
+        <v>1432.271572044882</v>
       </c>
       <c r="S5">
-        <v>0.02102202895681279</v>
+        <v>0.0249857261520511</v>
       </c>
       <c r="T5">
-        <v>0.02102202895681279</v>
+        <v>0.02498572615205109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>333.944756</v>
       </c>
       <c r="I6">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J6">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.802352333333334</v>
+        <v>3.317411333333334</v>
       </c>
       <c r="N6">
-        <v>17.407057</v>
+        <v>9.952234000000001</v>
       </c>
       <c r="O6">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="P6">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="Q6">
-        <v>645.8883780603436</v>
+        <v>369.2773727538782</v>
       </c>
       <c r="R6">
-        <v>5812.995402543092</v>
+        <v>3323.496354784904</v>
       </c>
       <c r="S6">
-        <v>0.09674366294280076</v>
+        <v>0.05797781049960929</v>
       </c>
       <c r="T6">
-        <v>0.09674366294280076</v>
+        <v>0.05797781049960929</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>333.944756</v>
       </c>
       <c r="I7">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J7">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>38.457719</v>
       </c>
       <c r="O7">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="P7">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="Q7">
         <v>1426.972620863507</v>
@@ -883,10 +883,10 @@
         <v>12842.75358777156</v>
       </c>
       <c r="S7">
-        <v>0.2137374861520212</v>
+        <v>0.2240395819098731</v>
       </c>
       <c r="T7">
-        <v>0.2137374861520212</v>
+        <v>0.224039581909873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>333.944756</v>
       </c>
       <c r="I8">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J8">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.378240000000001</v>
+        <v>7.649101666666667</v>
       </c>
       <c r="N8">
-        <v>22.13472</v>
+        <v>22.947305</v>
       </c>
       <c r="O8">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="P8">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="Q8">
-        <v>821.3081855031467</v>
+        <v>851.4591298980644</v>
       </c>
       <c r="R8">
-        <v>7391.77366952832</v>
+        <v>7663.13216908258</v>
       </c>
       <c r="S8">
-        <v>0.1230187211435725</v>
+        <v>0.1336819954963616</v>
       </c>
       <c r="T8">
-        <v>0.1230187211435725</v>
+        <v>0.1336819954963616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>333.944756</v>
       </c>
       <c r="I9">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J9">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.182820333333333</v>
+        <v>3.242843</v>
       </c>
       <c r="N9">
-        <v>9.548461</v>
+        <v>9.728529</v>
       </c>
       <c r="O9">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="P9">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="Q9">
-        <v>354.2953865356129</v>
+        <v>360.9768047937693</v>
       </c>
       <c r="R9">
-        <v>3188.658478820516</v>
+        <v>3248.791243143924</v>
       </c>
       <c r="S9">
-        <v>0.05306773526429414</v>
+        <v>0.05667459294083654</v>
       </c>
       <c r="T9">
-        <v>0.05306773526429414</v>
+        <v>0.05667459294083654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.02061066666666</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H10">
-        <v>99.061832</v>
+        <v>121.040131</v>
       </c>
       <c r="I10">
-        <v>0.1443360841185049</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J10">
-        <v>0.144336084118505</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.802352333333334</v>
+        <v>3.317411333333334</v>
       </c>
       <c r="N10">
-        <v>17.407057</v>
+        <v>9.952234000000001</v>
       </c>
       <c r="O10">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="P10">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="Q10">
-        <v>191.5972173498249</v>
+        <v>133.8466341225171</v>
       </c>
       <c r="R10">
-        <v>1724.374956148424</v>
+        <v>1204.619707102654</v>
       </c>
       <c r="S10">
-        <v>0.02869817331554191</v>
+        <v>0.02101437933035213</v>
       </c>
       <c r="T10">
-        <v>0.02869817331554192</v>
+        <v>0.02101437933035213</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>33.02061066666666</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H11">
-        <v>99.061832</v>
+        <v>121.040131</v>
       </c>
       <c r="I11">
-        <v>0.1443360841185049</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J11">
-        <v>0.144336084118505</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>38.457719</v>
       </c>
       <c r="O11">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="P11">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="Q11">
-        <v>423.2991220756897</v>
+        <v>517.2141495245766</v>
       </c>
       <c r="R11">
-        <v>3809.692098681207</v>
+        <v>4654.927345721188</v>
       </c>
       <c r="S11">
-        <v>0.06340338204111176</v>
+        <v>0.08120439041586947</v>
       </c>
       <c r="T11">
-        <v>0.06340338204111177</v>
+        <v>0.08120439041586945</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.02061066666666</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H12">
-        <v>99.061832</v>
+        <v>121.040131</v>
       </c>
       <c r="I12">
-        <v>0.1443360841185049</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J12">
-        <v>0.144336084118505</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.378240000000001</v>
+        <v>7.649101666666667</v>
       </c>
       <c r="N12">
-        <v>22.13472</v>
+        <v>22.947305</v>
       </c>
       <c r="O12">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="P12">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="Q12">
-        <v>243.6339904452267</v>
+        <v>308.6160892552172</v>
       </c>
       <c r="R12">
-        <v>2192.70591400704</v>
+        <v>2777.544803296955</v>
       </c>
       <c r="S12">
-        <v>0.03649244274037776</v>
+        <v>0.04845378152074057</v>
       </c>
       <c r="T12">
-        <v>0.03649244274037777</v>
+        <v>0.04845378152074056</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.02061066666666</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H13">
-        <v>99.061832</v>
+        <v>121.040131</v>
       </c>
       <c r="I13">
-        <v>0.1443360841185049</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J13">
-        <v>0.144336084118505</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.182820333333333</v>
+        <v>3.242843</v>
       </c>
       <c r="N13">
-        <v>9.548461</v>
+        <v>9.728529</v>
       </c>
       <c r="O13">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="P13">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="Q13">
-        <v>105.0986710489502</v>
+        <v>130.8380471774777</v>
       </c>
       <c r="R13">
-        <v>945.8880394405519</v>
+        <v>1177.542424597299</v>
       </c>
       <c r="S13">
-        <v>0.01574208602147351</v>
+        <v>0.02054202089021734</v>
       </c>
       <c r="T13">
-        <v>0.01574208602147351</v>
+        <v>0.02054202089021733</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.34450033333333</v>
+        <v>34.91373066666667</v>
       </c>
       <c r="H14">
-        <v>121.033501</v>
+        <v>104.741192</v>
       </c>
       <c r="I14">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="J14">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.802352333333334</v>
+        <v>3.317411333333334</v>
       </c>
       <c r="N14">
-        <v>17.407057</v>
+        <v>9.952234000000001</v>
       </c>
       <c r="O14">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="P14">
-        <v>0.1988288201859468</v>
+        <v>0.1227370957132105</v>
       </c>
       <c r="Q14">
-        <v>234.0930056462841</v>
+        <v>115.8232058025476</v>
       </c>
       <c r="R14">
-        <v>2106.837050816557</v>
+        <v>1042.408852222928</v>
       </c>
       <c r="S14">
-        <v>0.035063357082724</v>
+        <v>0.01818463944161828</v>
       </c>
       <c r="T14">
-        <v>0.035063357082724</v>
+        <v>0.01818463944161828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.34450033333333</v>
+        <v>34.91373066666667</v>
       </c>
       <c r="H15">
-        <v>121.033501</v>
+        <v>104.741192</v>
       </c>
       <c r="I15">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="J15">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>38.457719</v>
       </c>
       <c r="O15">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="P15">
-        <v>0.4392760301648158</v>
+        <v>0.4742843403616469</v>
       </c>
       <c r="Q15">
-        <v>517.1858190049131</v>
+        <v>447.5674810734499</v>
       </c>
       <c r="R15">
-        <v>4654.672371044218</v>
+        <v>4028.107329661048</v>
       </c>
       <c r="S15">
-        <v>0.07746609515233156</v>
+        <v>0.07026962526826366</v>
       </c>
       <c r="T15">
-        <v>0.07746609515233156</v>
+        <v>0.07026962526826365</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.34450033333333</v>
+        <v>34.91373066666667</v>
       </c>
       <c r="H16">
-        <v>121.033501</v>
+        <v>104.741192</v>
       </c>
       <c r="I16">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="J16">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.378240000000001</v>
+        <v>7.649101666666667</v>
       </c>
       <c r="N16">
-        <v>22.13472</v>
+        <v>22.947305</v>
       </c>
       <c r="O16">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="P16">
-        <v>0.2528296576926404</v>
+        <v>0.2830003364214742</v>
       </c>
       <c r="Q16">
-        <v>297.6714061394133</v>
+        <v>267.0586754319511</v>
       </c>
       <c r="R16">
-        <v>2679.04265525472</v>
+        <v>2403.52807888756</v>
       </c>
       <c r="S16">
-        <v>0.04458637616261684</v>
+        <v>0.04192912541865921</v>
       </c>
       <c r="T16">
-        <v>0.04458637616261684</v>
+        <v>0.0419291254186592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.34450033333333</v>
+        <v>34.91373066666667</v>
       </c>
       <c r="H17">
-        <v>121.033501</v>
+        <v>104.741192</v>
       </c>
       <c r="I17">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="J17">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.182820333333333</v>
+        <v>3.242843</v>
       </c>
       <c r="N17">
-        <v>9.548461</v>
+        <v>9.728529</v>
       </c>
       <c r="O17">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="P17">
-        <v>0.109065491956597</v>
+        <v>0.1199782275036684</v>
       </c>
       <c r="Q17">
-        <v>128.4092959991068</v>
+        <v>113.2197470962854</v>
       </c>
       <c r="R17">
-        <v>1155.683663991961</v>
+        <v>1018.977723866568</v>
       </c>
       <c r="S17">
-        <v>0.01923364171401655</v>
+        <v>0.01777588752056345</v>
       </c>
       <c r="T17">
-        <v>0.01923364171401655</v>
+        <v>0.01777588752056345</v>
       </c>
     </row>
   </sheetData>
